--- a/Resources/files/import/aes/ALL_PROJECTS.xlsx
+++ b/Resources/files/import/aes/ALL_PROJECTS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Dev\var\www\html\glowt4\www\modules\AEGIS\Resources\files\import\aes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5AF8AF-1FBB-414B-B03C-CF78314FB966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDD306D-1EAC-4BAB-9DBE-8A6876852054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18480" yWindow="16200" windowWidth="19920" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8985" yWindow="0" windowWidth="19920" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL PROJECTS" sheetId="1" r:id="rId1"/>
@@ -13276,7 +13276,7 @@
   <dimension ref="A1:L1632"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -70418,7 +70418,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1632" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L1632" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L1632">
+      <sortCondition ref="A1:A1632"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>